--- a/SchedulingData/static8/pso/scheduling1_19.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_19.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>74.36</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>26.204</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>68.42</v>
+        <v>89.5</v>
       </c>
       <c r="E3" t="n">
-        <v>26.348</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>81.09999999999999</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>26.52</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="5">
@@ -523,112 +523,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>92.7</v>
+        <v>58.8</v>
       </c>
       <c r="E5" t="n">
-        <v>24.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>81.09999999999999</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>135.4</v>
+        <v>105.48</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22</v>
+        <v>22.752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>77.2</v>
+        <v>84.34</v>
       </c>
       <c r="E7" t="n">
-        <v>25.92</v>
+        <v>26.216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>74.36</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>136.86</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>22.564</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>136.86</v>
+        <v>58.8</v>
       </c>
       <c r="D9" t="n">
-        <v>191.14</v>
+        <v>109.32</v>
       </c>
       <c r="E9" t="n">
-        <v>18.756</v>
+        <v>22.368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68.42</v>
+        <v>109.32</v>
       </c>
       <c r="D10" t="n">
-        <v>140.22</v>
+        <v>178.4</v>
       </c>
       <c r="E10" t="n">
-        <v>22.748</v>
+        <v>19.56</v>
       </c>
     </row>
     <row r="11">
@@ -637,188 +637,188 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>191.14</v>
+        <v>84.34</v>
       </c>
       <c r="D11" t="n">
-        <v>290.34</v>
+        <v>160.64</v>
       </c>
       <c r="E11" t="n">
-        <v>14.916</v>
+        <v>20.696</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140.22</v>
+        <v>89.5</v>
       </c>
       <c r="D12" t="n">
-        <v>204.26</v>
+        <v>154.38</v>
       </c>
       <c r="E12" t="n">
-        <v>18.964</v>
+        <v>19.012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>77.2</v>
+        <v>160.64</v>
       </c>
       <c r="D13" t="n">
-        <v>141.98</v>
+        <v>223.46</v>
       </c>
       <c r="E13" t="n">
-        <v>21.552</v>
+        <v>17.044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>290.34</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>365.74</v>
+        <v>106.62</v>
       </c>
       <c r="E14" t="n">
-        <v>10.496</v>
+        <v>23.648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>204.26</v>
+        <v>223.46</v>
       </c>
       <c r="D15" t="n">
-        <v>257.46</v>
+        <v>264.4</v>
       </c>
       <c r="E15" t="n">
-        <v>16.244</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>365.74</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>412.56</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>6.944</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.7</v>
+        <v>106.62</v>
       </c>
       <c r="D17" t="n">
-        <v>153.72</v>
+        <v>158.72</v>
       </c>
       <c r="E17" t="n">
-        <v>21.408</v>
+        <v>19.568</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>141.98</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>208.72</v>
+        <v>141.36</v>
       </c>
       <c r="E18" t="n">
-        <v>16.508</v>
+        <v>22.604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>153.72</v>
+        <v>158.72</v>
       </c>
       <c r="D19" t="n">
-        <v>204.22</v>
+        <v>214.96</v>
       </c>
       <c r="E19" t="n">
-        <v>17.488</v>
+        <v>16.544</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>178.4</v>
       </c>
       <c r="D20" t="n">
-        <v>49.9</v>
+        <v>229.32</v>
       </c>
       <c r="E20" t="n">
-        <v>26.2</v>
+        <v>15.608</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>204.22</v>
+        <v>229.32</v>
       </c>
       <c r="D21" t="n">
-        <v>264.74</v>
+        <v>303.42</v>
       </c>
       <c r="E21" t="n">
-        <v>14.056</v>
+        <v>12.768</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>264.74</v>
+        <v>303.42</v>
       </c>
       <c r="D22" t="n">
-        <v>336.54</v>
+        <v>350.82</v>
       </c>
       <c r="E22" t="n">
-        <v>9.976000000000001</v>
+        <v>9.167999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>49.9</v>
+        <v>141.36</v>
       </c>
       <c r="D23" t="n">
-        <v>117.48</v>
+        <v>193.54</v>
       </c>
       <c r="E23" t="n">
-        <v>21.552</v>
+        <v>18.516</v>
       </c>
     </row>
     <row r="24">
@@ -884,131 +884,131 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>208.72</v>
+        <v>154.38</v>
       </c>
       <c r="D24" t="n">
-        <v>265.8</v>
+        <v>209.22</v>
       </c>
       <c r="E24" t="n">
-        <v>12.92</v>
+        <v>15.148</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>135.4</v>
+        <v>209.22</v>
       </c>
       <c r="D25" t="n">
-        <v>190.96</v>
+        <v>265.46</v>
       </c>
       <c r="E25" t="n">
-        <v>19.284</v>
+        <v>11.144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>117.48</v>
+        <v>264.4</v>
       </c>
       <c r="D26" t="n">
-        <v>178.82</v>
+        <v>337.08</v>
       </c>
       <c r="E26" t="n">
-        <v>17.548</v>
+        <v>9.432</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>412.56</v>
+        <v>350.82</v>
       </c>
       <c r="D27" t="n">
-        <v>481.36</v>
+        <v>411.22</v>
       </c>
       <c r="E27" t="n">
-        <v>3.164</v>
+        <v>4.748</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>178.82</v>
+        <v>265.46</v>
       </c>
       <c r="D28" t="n">
-        <v>255.06</v>
+        <v>327.36</v>
       </c>
       <c r="E28" t="n">
-        <v>13.544</v>
+        <v>7.064</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>190.96</v>
+        <v>337.08</v>
       </c>
       <c r="D29" t="n">
-        <v>262.36</v>
+        <v>406.58</v>
       </c>
       <c r="E29" t="n">
-        <v>13.764</v>
+        <v>5.592</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>262.36</v>
+        <v>105.48</v>
       </c>
       <c r="D30" t="n">
-        <v>327.46</v>
+        <v>177.06</v>
       </c>
       <c r="E30" t="n">
-        <v>9.384</v>
+        <v>18.704</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>255.06</v>
+        <v>214.96</v>
       </c>
       <c r="D31" t="n">
-        <v>334.56</v>
+        <v>279.32</v>
       </c>
       <c r="E31" t="n">
-        <v>8.204000000000001</v>
+        <v>12.748</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>481.36</v>
+        <v>279.32</v>
       </c>
       <c r="D32" t="n">
-        <v>552.03</v>
+        <v>322.56</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>10.044</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>552.03</v>
+        <v>327.36</v>
       </c>
       <c r="D33" t="n">
-        <v>619.63</v>
+        <v>387.8</v>
       </c>
       <c r="E33" t="n">
-        <v>25.92</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>334.56</v>
+        <v>322.56</v>
       </c>
       <c r="D34" t="n">
-        <v>385.96</v>
+        <v>377.98</v>
       </c>
       <c r="E34" t="n">
-        <v>4.684</v>
+        <v>6.612</v>
       </c>
     </row>
     <row r="35">
@@ -1093,74 +1093,74 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>265.8</v>
+        <v>387.8</v>
       </c>
       <c r="D35" t="n">
-        <v>344</v>
+        <v>447.92</v>
       </c>
       <c r="E35" t="n">
-        <v>8.720000000000001</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>385.96</v>
+        <v>447.92</v>
       </c>
       <c r="D36" t="n">
-        <v>446.48</v>
+        <v>522.22</v>
       </c>
       <c r="E36" t="n">
-        <v>1.252</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>446.48</v>
+        <v>193.54</v>
       </c>
       <c r="D37" t="n">
-        <v>540.58</v>
+        <v>247.84</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>15.216</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>327.46</v>
+        <v>177.06</v>
       </c>
       <c r="D38" t="n">
-        <v>386.86</v>
+        <v>259.06</v>
       </c>
       <c r="E38" t="n">
-        <v>6.544</v>
+        <v>13.104</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>386.86</v>
+        <v>247.84</v>
       </c>
       <c r="D39" t="n">
-        <v>472.08</v>
+        <v>293.28</v>
       </c>
       <c r="E39" t="n">
-        <v>2.592</v>
+        <v>12.312</v>
       </c>
     </row>
     <row r="40">
@@ -1192,32 +1192,32 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>344</v>
+        <v>522.22</v>
       </c>
       <c r="D40" t="n">
-        <v>407.48</v>
+        <v>591.1</v>
       </c>
       <c r="E40" t="n">
-        <v>5.472</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>257.46</v>
+        <v>591.1</v>
       </c>
       <c r="D41" t="n">
-        <v>307.76</v>
+        <v>638</v>
       </c>
       <c r="E41" t="n">
-        <v>12.344</v>
+        <v>23.192</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>307.76</v>
+        <v>259.06</v>
       </c>
       <c r="D42" t="n">
-        <v>376.54</v>
+        <v>313.14</v>
       </c>
       <c r="E42" t="n">
-        <v>9.536</v>
+        <v>10.296</v>
       </c>
     </row>
     <row r="43">
@@ -1245,74 +1245,74 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>472.08</v>
+        <v>293.28</v>
       </c>
       <c r="D43" t="n">
-        <v>533.9</v>
+        <v>341.42</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>9.608000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>533.9</v>
+        <v>313.14</v>
       </c>
       <c r="D44" t="n">
-        <v>590.34</v>
+        <v>375.34</v>
       </c>
       <c r="E44" t="n">
-        <v>27.036</v>
+        <v>6.216</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>619.63</v>
+        <v>341.42</v>
       </c>
       <c r="D45" t="n">
-        <v>675.87</v>
+        <v>391.62</v>
       </c>
       <c r="E45" t="n">
-        <v>22.896</v>
+        <v>5.228</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>336.54</v>
+        <v>406.58</v>
       </c>
       <c r="D46" t="n">
-        <v>392.1</v>
+        <v>476.9</v>
       </c>
       <c r="E46" t="n">
-        <v>6.04</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="47">
@@ -1321,93 +1321,93 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>540.58</v>
+        <v>377.98</v>
       </c>
       <c r="D47" t="n">
-        <v>577.22</v>
+        <v>432.08</v>
       </c>
       <c r="E47" t="n">
-        <v>27.536</v>
+        <v>2.832</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>376.54</v>
+        <v>432.08</v>
       </c>
       <c r="D48" t="n">
-        <v>433.34</v>
+        <v>503.42</v>
       </c>
       <c r="E48" t="n">
-        <v>5.976</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>433.34</v>
+        <v>503.42</v>
       </c>
       <c r="D49" t="n">
-        <v>493.66</v>
+        <v>555.34</v>
       </c>
       <c r="E49" t="n">
-        <v>2.544</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>577.22</v>
+        <v>391.62</v>
       </c>
       <c r="D50" t="n">
-        <v>642.0599999999999</v>
+        <v>450.9</v>
       </c>
       <c r="E50" t="n">
-        <v>24.632</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>675.87</v>
+        <v>450.9</v>
       </c>
       <c r="D51" t="n">
-        <v>725.29</v>
+        <v>529.96</v>
       </c>
       <c r="E51" t="n">
-        <v>20.064</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -1416,60 +1416,60 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>725.29</v>
+        <v>476.9</v>
       </c>
       <c r="D52" t="n">
-        <v>780.13</v>
+        <v>554.28</v>
       </c>
       <c r="E52" t="n">
-        <v>16.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>642.0599999999999</v>
+        <v>554.28</v>
       </c>
       <c r="D53" t="n">
-        <v>697.02</v>
+        <v>630.6799999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>21.776</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>407.48</v>
+        <v>411.22</v>
       </c>
       <c r="D54" t="n">
-        <v>474.66</v>
+        <v>462.82</v>
       </c>
       <c r="E54" t="n">
-        <v>1.384</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>474.66</v>
+        <v>462.82</v>
       </c>
       <c r="D55" t="n">
-        <v>573.39</v>
+        <v>552.86</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
@@ -1488,21 +1488,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>697.02</v>
+        <v>529.96</v>
       </c>
       <c r="D56" t="n">
-        <v>760.9</v>
+        <v>605.8200000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>18.968</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="57">
@@ -1511,17 +1511,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>590.34</v>
+        <v>605.8200000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>666.64</v>
+        <v>664.78</v>
       </c>
       <c r="E57" t="n">
-        <v>23.016</v>
+        <v>22.788</v>
       </c>
     </row>
     <row r="58">
@@ -1530,17 +1530,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>493.66</v>
+        <v>375.34</v>
       </c>
       <c r="D58" t="n">
-        <v>565.47</v>
+        <v>466.68</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>1.172</v>
       </c>
     </row>
     <row r="59">
@@ -1549,55 +1549,55 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>565.47</v>
+        <v>466.68</v>
       </c>
       <c r="D59" t="n">
-        <v>647.25</v>
+        <v>541.14</v>
       </c>
       <c r="E59" t="n">
-        <v>25.952</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>392.1</v>
+        <v>541.14</v>
       </c>
       <c r="D60" t="n">
-        <v>463.2</v>
+        <v>601.54</v>
       </c>
       <c r="E60" t="n">
-        <v>1.06</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>463.2</v>
+        <v>638</v>
       </c>
       <c r="D61" t="n">
-        <v>547.6799999999999</v>
+        <v>682.86</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>20.336</v>
       </c>
     </row>
     <row r="62">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>547.6799999999999</v>
+        <v>552.86</v>
       </c>
       <c r="D62" t="n">
-        <v>611.58</v>
+        <v>619.98</v>
       </c>
       <c r="E62" t="n">
-        <v>25.8</v>
+        <v>26.448</v>
       </c>
     </row>
     <row r="63">
@@ -1625,74 +1625,74 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>647.25</v>
+        <v>601.54</v>
       </c>
       <c r="D63" t="n">
-        <v>734.59</v>
+        <v>650.84</v>
       </c>
       <c r="E63" t="n">
-        <v>21.808</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>734.59</v>
+        <v>619.98</v>
       </c>
       <c r="D64" t="n">
-        <v>814.63</v>
+        <v>697.62</v>
       </c>
       <c r="E64" t="n">
-        <v>18.904</v>
+        <v>22.304</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>814.63</v>
+        <v>555.34</v>
       </c>
       <c r="D65" t="n">
-        <v>868.6900000000001</v>
+        <v>642.84</v>
       </c>
       <c r="E65" t="n">
-        <v>15.628</v>
+        <v>23.368</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>760.9</v>
+        <v>650.84</v>
       </c>
       <c r="D66" t="n">
-        <v>819.04</v>
+        <v>714.24</v>
       </c>
       <c r="E66" t="n">
-        <v>16.264</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="67">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>611.58</v>
+        <v>697.62</v>
       </c>
       <c r="D67" t="n">
-        <v>671.84</v>
+        <v>748.12</v>
       </c>
       <c r="E67" t="n">
-        <v>21.884</v>
+        <v>18.384</v>
       </c>
     </row>
     <row r="68">
@@ -1720,74 +1720,74 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>780.13</v>
+        <v>630.6799999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>824.55</v>
+        <v>691.3200000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>12.888</v>
+        <v>22.556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>666.64</v>
+        <v>714.24</v>
       </c>
       <c r="D69" t="n">
-        <v>718.24</v>
+        <v>761.42</v>
       </c>
       <c r="E69" t="n">
-        <v>20.456</v>
+        <v>13.072</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>671.84</v>
+        <v>664.78</v>
       </c>
       <c r="D70" t="n">
-        <v>730.28</v>
+        <v>736.02</v>
       </c>
       <c r="E70" t="n">
-        <v>19.18</v>
+        <v>18.784</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>573.39</v>
+        <v>642.84</v>
       </c>
       <c r="D71" t="n">
-        <v>624.3099999999999</v>
+        <v>704.64</v>
       </c>
       <c r="E71" t="n">
-        <v>27.088</v>
+        <v>20.808</v>
       </c>
     </row>
   </sheetData>
